--- a/Code/Results/Cases/Case_2_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001737763560355</v>
+        <v>1.03147593874317</v>
       </c>
       <c r="D2">
-        <v>1.023579489529075</v>
+        <v>1.040309344572511</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.027606282163168</v>
+        <v>1.048795129013439</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045453632921888</v>
+        <v>1.035289422311934</v>
       </c>
       <c r="J2">
-        <v>1.023866622360832</v>
+        <v>1.036611456736802</v>
       </c>
       <c r="K2">
-        <v>1.034719815001161</v>
+        <v>1.043092058362471</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.038693961891256</v>
+        <v>1.051553978549312</v>
       </c>
       <c r="N2">
-        <v>1.025320630403728</v>
+        <v>1.038083563906364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006186465151657</v>
+        <v>1.032417529451702</v>
       </c>
       <c r="D3">
-        <v>1.026909740832007</v>
+        <v>1.041033724713244</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.031448568271414</v>
+        <v>1.049651937296318</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046483022321764</v>
+        <v>1.035445818570116</v>
       </c>
       <c r="J3">
-        <v>1.026509889956289</v>
+        <v>1.037194978424624</v>
       </c>
       <c r="K3">
-        <v>1.037209505821872</v>
+        <v>1.043627061932231</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.041694270413722</v>
+        <v>1.052222788321959</v>
       </c>
       <c r="N3">
-        <v>1.027967651742357</v>
+        <v>1.038667914261914</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009006933002158</v>
+        <v>1.033027218632859</v>
       </c>
       <c r="D4">
-        <v>1.029023298000708</v>
+        <v>1.041502644659833</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.033888932769451</v>
+        <v>1.050206876902091</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047125324909071</v>
+        <v>1.035545779894282</v>
       </c>
       <c r="J4">
-        <v>1.028183013357024</v>
+        <v>1.03757236278447</v>
       </c>
       <c r="K4">
-        <v>1.038783615540827</v>
+        <v>1.043972772919909</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.043594854629715</v>
+        <v>1.052655436922503</v>
       </c>
       <c r="N4">
-        <v>1.029643151170231</v>
+        <v>1.039045834550838</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.010179224208421</v>
+        <v>1.033283630827136</v>
       </c>
       <c r="D5">
-        <v>1.02990223820895</v>
+        <v>1.041699824462591</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.034904232556674</v>
+        <v>1.050440298254512</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047389769612705</v>
+        <v>1.035587506818886</v>
       </c>
       <c r="J5">
-        <v>1.028877743257238</v>
+        <v>1.03773096794778</v>
       </c>
       <c r="K5">
-        <v>1.039436783557146</v>
+        <v>1.044117995716791</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.044384372475274</v>
+        <v>1.052837293349906</v>
       </c>
       <c r="N5">
-        <v>1.030338867666589</v>
+        <v>1.039204664951672</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010375282979283</v>
+        <v>1.033326689331894</v>
       </c>
       <c r="D6">
-        <v>1.030049261615318</v>
+        <v>1.041732934466344</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.035074092344311</v>
+        <v>1.050479497997792</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0474338470752</v>
+        <v>1.035594495531634</v>
       </c>
       <c r="J6">
-        <v>1.028993891646768</v>
+        <v>1.037757595655273</v>
       </c>
       <c r="K6">
-        <v>1.039545956601136</v>
+        <v>1.044142372540934</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.044516387625018</v>
+        <v>1.052867826104376</v>
       </c>
       <c r="N6">
-        <v>1.030455181000156</v>
+        <v>1.039231330473563</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009022649373497</v>
+        <v>1.0330306444379</v>
       </c>
       <c r="D7">
-        <v>1.02903507977709</v>
+        <v>1.04150527920763</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.033902540572319</v>
+        <v>1.050209995401369</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047128880207726</v>
+        <v>1.035546338618465</v>
       </c>
       <c r="J7">
-        <v>1.028192330021906</v>
+        <v>1.037574482261191</v>
       </c>
       <c r="K7">
-        <v>1.038792376633751</v>
+        <v>1.043974713843731</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.043605441119744</v>
+        <v>1.052657867012698</v>
       </c>
       <c r="N7">
-        <v>1.029652481065846</v>
+        <v>1.039047957037459</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003253561184186</v>
+        <v>1.031794066795399</v>
       </c>
       <c r="D8">
-        <v>1.024713706361712</v>
+        <v>1.040554110462704</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.028914509108045</v>
+        <v>1.049084581286144</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045806514424174</v>
+        <v>1.035342533062195</v>
       </c>
       <c r="J8">
-        <v>1.024767803683766</v>
+        <v>1.036808700040838</v>
       </c>
       <c r="K8">
-        <v>1.035569005471076</v>
+        <v>1.043272962424485</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.039716556626949</v>
+        <v>1.05178002921196</v>
       </c>
       <c r="N8">
-        <v>1.026223091507507</v>
+        <v>1.038281087318516</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9926193327553595</v>
+        <v>1.029618295970935</v>
       </c>
       <c r="D9">
-        <v>1.016768199113344</v>
+        <v>1.038879606089695</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.019757318946645</v>
+        <v>1.047105563218291</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043288773870162</v>
+        <v>1.034973948176396</v>
       </c>
       <c r="J9">
-        <v>1.018435440811967</v>
+        <v>1.035457857128428</v>
       </c>
       <c r="K9">
-        <v>1.029594958444759</v>
+        <v>1.042032818747947</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.032537778677587</v>
+        <v>1.050232333786501</v>
       </c>
       <c r="N9">
-        <v>1.019881735954098</v>
+        <v>1.036928326054226</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.985180597624956</v>
+        <v>1.028170015073451</v>
       </c>
       <c r="D10">
-        <v>1.011227945776591</v>
+        <v>1.037764414656977</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.013380917791931</v>
+        <v>1.045789066966745</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04147608734469</v>
+        <v>1.034721901567865</v>
       </c>
       <c r="J10">
-        <v>1.013994775485078</v>
+        <v>1.034556386131972</v>
       </c>
       <c r="K10">
-        <v>1.025397392829454</v>
+        <v>1.041203721008005</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.027512706649949</v>
+        <v>1.049200051122376</v>
       </c>
       <c r="N10">
-        <v>1.015434764373093</v>
+        <v>1.036025574865555</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9818683836418985</v>
+        <v>1.027543434580535</v>
       </c>
       <c r="D11">
-        <v>1.008766219363699</v>
+        <v>1.037281813688514</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.010549558164991</v>
+        <v>1.045219703837759</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040657386347438</v>
+        <v>1.034611269555456</v>
       </c>
       <c r="J11">
-        <v>1.012015408560455</v>
+        <v>1.034165835387548</v>
       </c>
       <c r="K11">
-        <v>1.023524689729695</v>
+        <v>1.040844171842638</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.025275230322343</v>
+        <v>1.048752961586013</v>
       </c>
       <c r="N11">
-        <v>1.013452586520401</v>
+        <v>1.035634469494277</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9806236128282351</v>
+        <v>1.027310775888136</v>
       </c>
       <c r="D12">
-        <v>1.007841933277545</v>
+        <v>1.037102598313777</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.009486758331903</v>
+        <v>1.045008321915865</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040348026523254</v>
+        <v>1.034569951934899</v>
       </c>
       <c r="J12">
-        <v>1.011271272745976</v>
+        <v>1.03402073713761</v>
       </c>
       <c r="K12">
-        <v>1.022820420730721</v>
+        <v>1.040710538519655</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.024434436310791</v>
+        <v>1.048586878165527</v>
       </c>
       <c r="N12">
-        <v>1.012707393947712</v>
+        <v>1.035489165188182</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9808912879625972</v>
+        <v>1.027360678278907</v>
       </c>
       <c r="D13">
-        <v>1.008040651146493</v>
+        <v>1.03714103860132</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.009715244172568</v>
+        <v>1.045053659285418</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040414626216764</v>
+        <v>1.034578824831361</v>
       </c>
       <c r="J13">
-        <v>1.01143130266524</v>
+        <v>1.034051862561878</v>
       </c>
       <c r="K13">
-        <v>1.022971887278211</v>
+        <v>1.04073920695879</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.024615235672883</v>
+        <v>1.048622504257855</v>
       </c>
       <c r="N13">
-        <v>1.012867651127816</v>
+        <v>1.035520334814122</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9817657902454621</v>
+        <v>1.02752420127892</v>
       </c>
       <c r="D14">
-        <v>1.008690022149163</v>
+        <v>1.037266998781739</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.010461936622313</v>
+        <v>1.045202228793853</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040631922912804</v>
+        <v>1.034607858793883</v>
       </c>
       <c r="J14">
-        <v>1.011954082358054</v>
+        <v>1.034153842134059</v>
       </c>
       <c r="K14">
-        <v>1.02346665366677</v>
+        <v>1.040833127311864</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.025205930483006</v>
+        <v>1.048739233366623</v>
       </c>
       <c r="N14">
-        <v>1.013391173227759</v>
+        <v>1.035622459208993</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9823026590973462</v>
+        <v>1.027624963982196</v>
       </c>
       <c r="D15">
-        <v>1.009088796014718</v>
+        <v>1.037344612893403</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.010920509976442</v>
+        <v>1.045293781314856</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040765104261241</v>
+        <v>1.034625717914334</v>
       </c>
       <c r="J15">
-        <v>1.012274990425688</v>
+        <v>1.034216671124643</v>
       </c>
       <c r="K15">
-        <v>1.023770335707162</v>
+        <v>1.040890984071323</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.025568578525276</v>
+        <v>1.048811152143311</v>
       </c>
       <c r="N15">
-        <v>1.013712537021657</v>
+        <v>1.03568537742395</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9853984328379031</v>
+        <v>1.028211610496672</v>
       </c>
       <c r="D16">
-        <v>1.011389961404146</v>
+        <v>1.037796449403098</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.013567298659674</v>
+        <v>1.045826868352114</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041529694678012</v>
+        <v>1.034729212413844</v>
       </c>
       <c r="J16">
-        <v>1.014124913516985</v>
+        <v>1.034582301397352</v>
       </c>
       <c r="K16">
-        <v>1.025520484507828</v>
+        <v>1.041227571720735</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.027659865884822</v>
+        <v>1.049229720887997</v>
       </c>
       <c r="N16">
-        <v>1.015565087215933</v>
+        <v>1.036051526933584</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9873153907032101</v>
+        <v>1.028579742121388</v>
       </c>
       <c r="D17">
-        <v>1.012816302152585</v>
+        <v>1.038079951609239</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>1.015208358503034</v>
+        <v>1.046161445115143</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042000130440703</v>
+        <v>1.034793732112349</v>
       </c>
       <c r="J17">
-        <v>1.015269900709333</v>
+        <v>1.03481159660396</v>
       </c>
       <c r="K17">
-        <v>1.026603285852738</v>
+        <v>1.041438559245176</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.028954883138457</v>
+        <v>1.049492250928328</v>
       </c>
       <c r="N17">
-        <v>1.016711700421426</v>
+        <v>1.036281147765687</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9884247755700789</v>
+        <v>1.028794518601379</v>
       </c>
       <c r="D18">
-        <v>1.013642239941279</v>
+        <v>1.038245340984633</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>1.016158812846813</v>
+        <v>1.046356664406238</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042271279683737</v>
+        <v>1.034831221160694</v>
       </c>
       <c r="J18">
-        <v>1.015932327789171</v>
+        <v>1.03494532050241</v>
       </c>
       <c r="K18">
-        <v>1.027229573435882</v>
+        <v>1.041561572105298</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.029704333992164</v>
+        <v>1.049645370111365</v>
       </c>
       <c r="N18">
-        <v>1.017375068223699</v>
+        <v>1.036415061567411</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9888015863678642</v>
+        <v>1.028867760544987</v>
       </c>
       <c r="D19">
-        <v>1.01392285537753</v>
+        <v>1.03830173908139</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>1.016481764426651</v>
+        <v>1.046423240344995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042363188931846</v>
+        <v>1.03484397948282</v>
       </c>
       <c r="J19">
-        <v>1.016157290426342</v>
+        <v>1.034990913456204</v>
       </c>
       <c r="K19">
-        <v>1.027442234833893</v>
+        <v>1.04160350735954</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.029958887758291</v>
+        <v>1.049697578037624</v>
       </c>
       <c r="N19">
-        <v>1.017600350333618</v>
+        <v>1.036460719268429</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9871106290896081</v>
+        <v>1.028540239745541</v>
       </c>
       <c r="D20">
-        <v>1.012663895482127</v>
+        <v>1.038049531668015</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>1.015032990086411</v>
+        <v>1.046125541323875</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041949994353739</v>
+        <v>1.034786824670873</v>
       </c>
       <c r="J20">
-        <v>1.015147618438158</v>
+        <v>1.034786997472409</v>
       </c>
       <c r="K20">
-        <v>1.026487661577119</v>
+        <v>1.041415927713062</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.02881655453152</v>
+        <v>1.049464084980402</v>
       </c>
       <c r="N20">
-        <v>1.016589244495399</v>
+        <v>1.036256513700547</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9815086769096305</v>
+        <v>1.027476045582566</v>
       </c>
       <c r="D21">
-        <v>1.008499075490477</v>
+        <v>1.037229905419096</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.010242365424141</v>
+        <v>1.045158475869233</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040568081104712</v>
+        <v>1.034599315193957</v>
       </c>
       <c r="J21">
-        <v>1.011800386251772</v>
+        <v>1.034123812521306</v>
       </c>
       <c r="K21">
-        <v>1.02332119964897</v>
+        <v>1.040805472329709</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.025032256940391</v>
+        <v>1.048704859942903</v>
       </c>
       <c r="N21">
-        <v>1.013237258855376</v>
+        <v>1.035592386950746</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9779023852256712</v>
+        <v>1.026807414712974</v>
       </c>
       <c r="D22">
-        <v>1.005823007942667</v>
+        <v>1.036714829781447</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.007165754952325</v>
+        <v>1.044551051050854</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039668698683042</v>
+        <v>1.0344801250061</v>
       </c>
       <c r="J22">
-        <v>1.009644064883086</v>
+        <v>1.033706666884888</v>
       </c>
       <c r="K22">
-        <v>1.02127998582319</v>
+        <v>1.040421188093916</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.02259658097678</v>
+        <v>1.048227421968023</v>
       </c>
       <c r="N22">
-        <v>1.011077875263012</v>
+        <v>1.035174648919677</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9798223928517755</v>
+        <v>1.027161823723253</v>
       </c>
       <c r="D23">
-        <v>1.007247253011121</v>
+        <v>1.036987856396726</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.008803033187849</v>
+        <v>1.044873000355845</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040148434683155</v>
+        <v>1.034543432609086</v>
       </c>
       <c r="J23">
-        <v>1.010792227353296</v>
+        <v>1.033927819956148</v>
       </c>
       <c r="K23">
-        <v>1.0223669771149</v>
+        <v>1.040624948332219</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.023893274940201</v>
+        <v>1.048480528339651</v>
       </c>
       <c r="N23">
-        <v>1.012227668255627</v>
+        <v>1.035396116053664</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9872031790152966</v>
+        <v>1.028558089009642</v>
       </c>
       <c r="D24">
-        <v>1.012732780074623</v>
+        <v>1.038063277045726</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.015112252339898</v>
+        <v>1.046141764496898</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041972658717418</v>
+        <v>1.034789946291949</v>
       </c>
       <c r="J24">
-        <v>1.01520288926613</v>
+        <v>1.034798112823329</v>
       </c>
       <c r="K24">
-        <v>1.026539923536877</v>
+        <v>1.041426154090858</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.028879077508776</v>
+        <v>1.049476811991349</v>
       </c>
       <c r="N24">
-        <v>1.016644593814287</v>
+        <v>1.036267644836541</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9954274383248123</v>
+        <v>1.030180395461615</v>
       </c>
       <c r="D25">
-        <v>1.018863565539261</v>
+        <v>1.039312310033276</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.02217066209875</v>
+        <v>1.047616691152373</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04396269763565</v>
+        <v>1.03507035312939</v>
       </c>
       <c r="J25">
-        <v>1.020109673424888</v>
+        <v>1.035807246799326</v>
       </c>
       <c r="K25">
-        <v>1.031175940017515</v>
+        <v>1.042353841882679</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.034434286907148</v>
+        <v>1.050632541206539</v>
       </c>
       <c r="N25">
-        <v>1.021558346169367</v>
+        <v>1.037278211898533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_154/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03147593874317</v>
+        <v>1.001737763560354</v>
       </c>
       <c r="D2">
-        <v>1.040309344572511</v>
+        <v>1.023579489529073</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.048795129013439</v>
+        <v>1.027606282163166</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035289422311934</v>
+        <v>1.045453632921888</v>
       </c>
       <c r="J2">
-        <v>1.036611456736802</v>
+        <v>1.023866622360831</v>
       </c>
       <c r="K2">
-        <v>1.043092058362471</v>
+        <v>1.034719815001159</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.051553978549312</v>
+        <v>1.038693961891254</v>
       </c>
       <c r="N2">
-        <v>1.038083563906364</v>
+        <v>1.025320630403727</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032417529451702</v>
+        <v>1.006186465151657</v>
       </c>
       <c r="D3">
-        <v>1.041033724713244</v>
+        <v>1.026909740832007</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.049651937296318</v>
+        <v>1.031448568271413</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035445818570116</v>
+        <v>1.046483022321764</v>
       </c>
       <c r="J3">
-        <v>1.037194978424624</v>
+        <v>1.026509889956289</v>
       </c>
       <c r="K3">
-        <v>1.043627061932231</v>
+        <v>1.037209505821872</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.052222788321959</v>
+        <v>1.041694270413721</v>
       </c>
       <c r="N3">
-        <v>1.038667914261914</v>
+        <v>1.027967651742357</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033027218632859</v>
+        <v>1.009006933002158</v>
       </c>
       <c r="D4">
-        <v>1.041502644659833</v>
+        <v>1.029023298000709</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.050206876902091</v>
+        <v>1.033888932769452</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035545779894282</v>
+        <v>1.047125324909072</v>
       </c>
       <c r="J4">
-        <v>1.03757236278447</v>
+        <v>1.028183013357025</v>
       </c>
       <c r="K4">
-        <v>1.043972772919909</v>
+        <v>1.038783615540827</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.052655436922503</v>
+        <v>1.043594854629716</v>
       </c>
       <c r="N4">
-        <v>1.039045834550838</v>
+        <v>1.029643151170232</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033283630827136</v>
+        <v>1.010179224208421</v>
       </c>
       <c r="D5">
-        <v>1.041699824462591</v>
+        <v>1.02990223820895</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.050440298254512</v>
+        <v>1.034904232556674</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035587506818886</v>
+        <v>1.047389769612705</v>
       </c>
       <c r="J5">
-        <v>1.03773096794778</v>
+        <v>1.028877743257238</v>
       </c>
       <c r="K5">
-        <v>1.044117995716791</v>
+        <v>1.039436783557147</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.052837293349906</v>
+        <v>1.044384372475274</v>
       </c>
       <c r="N5">
-        <v>1.039204664951672</v>
+        <v>1.03033886766659</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033326689331894</v>
+        <v>1.010375282979283</v>
       </c>
       <c r="D6">
-        <v>1.041732934466344</v>
+        <v>1.030049261615319</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.050479497997792</v>
+        <v>1.035074092344312</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035594495531634</v>
+        <v>1.0474338470752</v>
       </c>
       <c r="J6">
-        <v>1.037757595655273</v>
+        <v>1.028993891646769</v>
       </c>
       <c r="K6">
-        <v>1.044142372540934</v>
+        <v>1.039545956601136</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.052867826104376</v>
+        <v>1.044516387625019</v>
       </c>
       <c r="N6">
-        <v>1.039231330473563</v>
+        <v>1.030455181000156</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.0330306444379</v>
+        <v>1.009022649373497</v>
       </c>
       <c r="D7">
-        <v>1.04150527920763</v>
+        <v>1.029035079777089</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.050209995401369</v>
+        <v>1.033902540572318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035546338618465</v>
+        <v>1.047128880207726</v>
       </c>
       <c r="J7">
-        <v>1.037574482261191</v>
+        <v>1.028192330021905</v>
       </c>
       <c r="K7">
-        <v>1.043974713843731</v>
+        <v>1.038792376633751</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.052657867012698</v>
+        <v>1.043605441119744</v>
       </c>
       <c r="N7">
-        <v>1.039047957037459</v>
+        <v>1.029652481065845</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031794066795399</v>
+        <v>1.003253561184186</v>
       </c>
       <c r="D8">
-        <v>1.040554110462704</v>
+        <v>1.024713706361712</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.049084581286144</v>
+        <v>1.028914509108046</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035342533062195</v>
+        <v>1.045806514424174</v>
       </c>
       <c r="J8">
-        <v>1.036808700040838</v>
+        <v>1.024767803683767</v>
       </c>
       <c r="K8">
-        <v>1.043272962424485</v>
+        <v>1.035569005471076</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.05178002921196</v>
+        <v>1.03971655662695</v>
       </c>
       <c r="N8">
-        <v>1.038281087318516</v>
+        <v>1.026223091507508</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029618295970935</v>
+        <v>0.9926193327553599</v>
       </c>
       <c r="D9">
-        <v>1.038879606089695</v>
+        <v>1.016768199113344</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.047105563218291</v>
+        <v>1.019757318946645</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034973948176396</v>
+        <v>1.043288773870162</v>
       </c>
       <c r="J9">
-        <v>1.035457857128428</v>
+        <v>1.018435440811967</v>
       </c>
       <c r="K9">
-        <v>1.042032818747947</v>
+        <v>1.029594958444759</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.050232333786501</v>
+        <v>1.032537778677587</v>
       </c>
       <c r="N9">
-        <v>1.036928326054226</v>
+        <v>1.019881735954098</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028170015073451</v>
+        <v>0.9851805976249567</v>
       </c>
       <c r="D10">
-        <v>1.037764414656977</v>
+        <v>1.011227945776591</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.045789066966745</v>
+        <v>1.013380917791931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034721901567865</v>
+        <v>1.04147608734469</v>
       </c>
       <c r="J10">
-        <v>1.034556386131972</v>
+        <v>1.013994775485079</v>
       </c>
       <c r="K10">
-        <v>1.041203721008005</v>
+        <v>1.025397392829454</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.049200051122376</v>
+        <v>1.027512706649949</v>
       </c>
       <c r="N10">
-        <v>1.036025574865555</v>
+        <v>1.015434764373094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027543434580535</v>
+        <v>0.9818683836418993</v>
       </c>
       <c r="D11">
-        <v>1.037281813688514</v>
+        <v>1.0087662193637</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.045219703837759</v>
+        <v>1.010549558164992</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034611269555456</v>
+        <v>1.040657386347438</v>
       </c>
       <c r="J11">
-        <v>1.034165835387548</v>
+        <v>1.012015408560456</v>
       </c>
       <c r="K11">
-        <v>1.040844171842638</v>
+        <v>1.023524689729695</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.048752961586013</v>
+        <v>1.025275230322344</v>
       </c>
       <c r="N11">
-        <v>1.035634469494277</v>
+        <v>1.013452586520402</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027310775888136</v>
+        <v>0.9806236128282344</v>
       </c>
       <c r="D12">
-        <v>1.037102598313777</v>
+        <v>1.007841933277544</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.045008321915865</v>
+        <v>1.009486758331903</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034569951934899</v>
+        <v>1.040348026523253</v>
       </c>
       <c r="J12">
-        <v>1.03402073713761</v>
+        <v>1.011271272745975</v>
       </c>
       <c r="K12">
-        <v>1.040710538519655</v>
+        <v>1.02282042073072</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.048586878165527</v>
+        <v>1.024434436310791</v>
       </c>
       <c r="N12">
-        <v>1.035489165188182</v>
+        <v>1.012707393947711</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027360678278907</v>
+        <v>0.9808912879625969</v>
       </c>
       <c r="D13">
-        <v>1.03714103860132</v>
+        <v>1.008040651146493</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.045053659285418</v>
+        <v>1.009715244172567</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034578824831361</v>
+        <v>1.040414626216764</v>
       </c>
       <c r="J13">
-        <v>1.034051862561878</v>
+        <v>1.01143130266524</v>
       </c>
       <c r="K13">
-        <v>1.04073920695879</v>
+        <v>1.022971887278211</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.048622504257855</v>
+        <v>1.024615235672883</v>
       </c>
       <c r="N13">
-        <v>1.035520334814122</v>
+        <v>1.012867651127816</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02752420127892</v>
+        <v>0.9817657902454617</v>
       </c>
       <c r="D14">
-        <v>1.037266998781739</v>
+        <v>1.008690022149162</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.045202228793853</v>
+        <v>1.010461936622312</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034607858793883</v>
+        <v>1.040631922912804</v>
       </c>
       <c r="J14">
-        <v>1.034153842134059</v>
+        <v>1.011954082358054</v>
       </c>
       <c r="K14">
-        <v>1.040833127311864</v>
+        <v>1.023466653666769</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.048739233366623</v>
+        <v>1.025205930483006</v>
       </c>
       <c r="N14">
-        <v>1.035622459208993</v>
+        <v>1.013391173227758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027624963982196</v>
+        <v>0.9823026590973458</v>
       </c>
       <c r="D15">
-        <v>1.037344612893403</v>
+        <v>1.009088796014718</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.045293781314856</v>
+        <v>1.010920509976442</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034625717914334</v>
+        <v>1.04076510426124</v>
       </c>
       <c r="J15">
-        <v>1.034216671124643</v>
+        <v>1.012274990425688</v>
       </c>
       <c r="K15">
-        <v>1.040890984071323</v>
+        <v>1.023770335707161</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.048811152143311</v>
+        <v>1.025568578525275</v>
       </c>
       <c r="N15">
-        <v>1.03568537742395</v>
+        <v>1.013712537021657</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028211610496672</v>
+        <v>0.9853984328379035</v>
       </c>
       <c r="D16">
-        <v>1.037796449403098</v>
+        <v>1.011389961404147</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.045826868352114</v>
+        <v>1.013567298659675</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034729212413844</v>
+        <v>1.041529694678012</v>
       </c>
       <c r="J16">
-        <v>1.034582301397352</v>
+        <v>1.014124913516986</v>
       </c>
       <c r="K16">
-        <v>1.041227571720735</v>
+        <v>1.025520484507829</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.049229720887997</v>
+        <v>1.027659865884823</v>
       </c>
       <c r="N16">
-        <v>1.036051526933584</v>
+        <v>1.015565087215934</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028579742121388</v>
+        <v>0.9873153907032108</v>
       </c>
       <c r="D17">
-        <v>1.038079951609239</v>
+        <v>1.012816302152586</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.046161445115143</v>
+        <v>1.015208358503035</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034793732112349</v>
+        <v>1.042000130440704</v>
       </c>
       <c r="J17">
-        <v>1.03481159660396</v>
+        <v>1.015269900709334</v>
       </c>
       <c r="K17">
-        <v>1.041438559245176</v>
+        <v>1.026603285852739</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.049492250928328</v>
+        <v>1.028954883138458</v>
       </c>
       <c r="N17">
-        <v>1.036281147765687</v>
+        <v>1.016711700421426</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028794518601379</v>
+        <v>0.988424775570079</v>
       </c>
       <c r="D18">
-        <v>1.038245340984633</v>
+        <v>1.013642239941279</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.046356664406238</v>
+        <v>1.016158812846813</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034831221160694</v>
+        <v>1.042271279683737</v>
       </c>
       <c r="J18">
-        <v>1.03494532050241</v>
+        <v>1.015932327789171</v>
       </c>
       <c r="K18">
-        <v>1.041561572105298</v>
+        <v>1.027229573435882</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.049645370111365</v>
+        <v>1.029704333992164</v>
       </c>
       <c r="N18">
-        <v>1.036415061567411</v>
+        <v>1.017375068223699</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028867760544987</v>
+        <v>0.9888015863678649</v>
       </c>
       <c r="D19">
-        <v>1.03830173908139</v>
+        <v>1.013922855377531</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.046423240344995</v>
+        <v>1.016481764426652</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03484397948282</v>
+        <v>1.042363188931847</v>
       </c>
       <c r="J19">
-        <v>1.034990913456204</v>
+        <v>1.016157290426343</v>
       </c>
       <c r="K19">
-        <v>1.04160350735954</v>
+        <v>1.027442234833893</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.049697578037624</v>
+        <v>1.029958887758292</v>
       </c>
       <c r="N19">
-        <v>1.036460719268429</v>
+        <v>1.017600350333618</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028540239745541</v>
+        <v>0.9871106290896072</v>
       </c>
       <c r="D20">
-        <v>1.038049531668015</v>
+        <v>1.012663895482127</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.046125541323875</v>
+        <v>1.015032990086411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034786824670873</v>
+        <v>1.041949994353739</v>
       </c>
       <c r="J20">
-        <v>1.034786997472409</v>
+        <v>1.015147618438157</v>
       </c>
       <c r="K20">
-        <v>1.041415927713062</v>
+        <v>1.026487661577118</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.049464084980402</v>
+        <v>1.02881655453152</v>
       </c>
       <c r="N20">
-        <v>1.036256513700547</v>
+        <v>1.016589244495399</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027476045582566</v>
+        <v>0.9815086769096304</v>
       </c>
       <c r="D21">
-        <v>1.037229905419096</v>
+        <v>1.008499075490477</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.045158475869233</v>
+        <v>1.010242365424142</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034599315193957</v>
+        <v>1.040568081104712</v>
       </c>
       <c r="J21">
-        <v>1.034123812521306</v>
+        <v>1.011800386251771</v>
       </c>
       <c r="K21">
-        <v>1.040805472329709</v>
+        <v>1.02332119964897</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.048704859942903</v>
+        <v>1.025032256940391</v>
       </c>
       <c r="N21">
-        <v>1.035592386950746</v>
+        <v>1.013237258855376</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026807414712974</v>
+        <v>0.9779023852256713</v>
       </c>
       <c r="D22">
-        <v>1.036714829781447</v>
+        <v>1.005823007942668</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.044551051050854</v>
+        <v>1.007165754952326</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.0344801250061</v>
+        <v>1.039668698683042</v>
       </c>
       <c r="J22">
-        <v>1.033706666884888</v>
+        <v>1.009644064883086</v>
       </c>
       <c r="K22">
-        <v>1.040421188093916</v>
+        <v>1.021279985823191</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.048227421968023</v>
+        <v>1.022596580976781</v>
       </c>
       <c r="N22">
-        <v>1.035174648919677</v>
+        <v>1.011077875263013</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027161823723253</v>
+        <v>0.9798223928517762</v>
       </c>
       <c r="D23">
-        <v>1.036987856396726</v>
+        <v>1.007247253011122</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.044873000355845</v>
+        <v>1.00880303318785</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034543432609086</v>
+        <v>1.040148434683155</v>
       </c>
       <c r="J23">
-        <v>1.033927819956148</v>
+        <v>1.010792227353297</v>
       </c>
       <c r="K23">
-        <v>1.040624948332219</v>
+        <v>1.022366977114901</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.048480528339651</v>
+        <v>1.023893274940202</v>
       </c>
       <c r="N23">
-        <v>1.035396116053664</v>
+        <v>1.012227668255627</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028558089009642</v>
+        <v>0.9872031790152964</v>
       </c>
       <c r="D24">
-        <v>1.038063277045726</v>
+        <v>1.012732780074623</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.046141764496898</v>
+        <v>1.015112252339898</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034789946291949</v>
+        <v>1.041972658717418</v>
       </c>
       <c r="J24">
-        <v>1.034798112823329</v>
+        <v>1.01520288926613</v>
       </c>
       <c r="K24">
-        <v>1.041426154090858</v>
+        <v>1.026539923536877</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.049476811991349</v>
+        <v>1.028879077508776</v>
       </c>
       <c r="N24">
-        <v>1.036267644836541</v>
+        <v>1.016644593814287</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030180395461615</v>
+        <v>0.9954274383248123</v>
       </c>
       <c r="D25">
-        <v>1.039312310033276</v>
+        <v>1.018863565539261</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.047616691152373</v>
+        <v>1.02217066209875</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03507035312939</v>
+        <v>1.04396269763565</v>
       </c>
       <c r="J25">
-        <v>1.035807246799326</v>
+        <v>1.020109673424888</v>
       </c>
       <c r="K25">
-        <v>1.042353841882679</v>
+        <v>1.031175940017515</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.050632541206539</v>
+        <v>1.034434286907148</v>
       </c>
       <c r="N25">
-        <v>1.037278211898533</v>
+        <v>1.021558346169367</v>
       </c>
     </row>
   </sheetData>
